--- a/src/main/resources/Addfuelsupervisor.xlsx
+++ b/src/main/resources/Addfuelsupervisor.xlsx
@@ -72,13 +72,13 @@
     <t>Usercode - NA01</t>
   </si>
   <si>
-    <t>Kriti</t>
-  </si>
-  <si>
-    <t>Sanon</t>
-  </si>
-  <si>
-    <t>Usercode - KS90</t>
+    <t>Parineeti</t>
+  </si>
+  <si>
+    <t>Chopra</t>
+  </si>
+  <si>
+    <t>Usercode - PC93</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/Addfuelsupervisor.xlsx
+++ b/src/main/resources/Addfuelsupervisor.xlsx
@@ -72,13 +72,13 @@
     <t>Usercode - NA01</t>
   </si>
   <si>
-    <t>Parineeti</t>
-  </si>
-  <si>
-    <t>Chopra</t>
-  </si>
-  <si>
-    <t>Usercode - PC93</t>
+    <t>Basith</t>
+  </si>
+  <si>
+    <t>Mohd</t>
+  </si>
+  <si>
+    <t>Usercode - BM94</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/Addfuelsupervisor.xlsx
+++ b/src/main/resources/Addfuelsupervisor.xlsx
@@ -72,13 +72,13 @@
     <t>Usercode - NA01</t>
   </si>
   <si>
-    <t>Basith</t>
-  </si>
-  <si>
-    <t>Mohd</t>
-  </si>
-  <si>
-    <t>Usercode - BM94</t>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Sangakkara</t>
+  </si>
+  <si>
+    <t>Usercode - KS97</t>
   </si>
 </sst>
 </file>
